--- a/examples/4_circle2inclined_analysis_files/circle-to-inclined-circle_gradient_max-primer.xlsx
+++ b/examples/4_circle2inclined_analysis_files/circle-to-inclined-circle_gradient_max-primer.xlsx
@@ -463,7 +463,7 @@
         <v>0.1356882220855234</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0252295729413445</v>
+        <v>-0.0252295729413471</v>
       </c>
       <c r="E2" t="n">
         <v>0.06037790292846012</v>
@@ -503,13 +503,13 @@
         <v>0.04228285795071794</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.121649432627587</v>
+        <v>-0.1216494326275819</v>
       </c>
       <c r="E4" t="n">
         <v>-0.02142911797952012</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5549214893647252</v>
+        <v>-0.5549214893646277</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6635828563089458</v>
+        <v>-0.6635828563089455</v>
       </c>
       <c r="C5" t="n">
         <v>0.01304319697822938</v>
@@ -540,7 +540,7 @@
         <v>0.1334167650675158</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.016942281541345</v>
+        <v>-0.01694228154134494</v>
       </c>
       <c r="D6" t="n">
         <v>-0.2742460590692329</v>
@@ -557,10 +557,10 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1353584161972695</v>
+        <v>0.1353584161972694</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.05191903725861706</v>
+        <v>-0.05191903725861737</v>
       </c>
       <c r="D7" t="n">
         <v>-0.3790545172726358</v>
@@ -569,7 +569,7 @@
         <v>-0.4057050909660257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1046698705541875</v>
+        <v>0.104669870554186</v>
       </c>
     </row>
     <row r="8">
@@ -577,13 +577,13 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1363240762098286</v>
+        <v>0.1363240762098293</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09457324790611887</v>
+        <v>-0.09457324790612009</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5031460317775045</v>
+        <v>-0.5031460317775145</v>
       </c>
       <c r="E8" t="n">
         <v>-0.5629820739851623</v>
@@ -597,7 +597,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1361527593490008</v>
+        <v>0.1361527593490014</v>
       </c>
       <c r="C9" t="n">
         <v>-0.1471132956470781</v>
@@ -606,10 +606,10 @@
         <v>-0.629797596568021</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7039411347615061</v>
+        <v>0.7039411347614905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1077595821624589</v>
+        <v>0.1077595821624135</v>
       </c>
     </row>
     <row r="10">
@@ -623,10 +623,10 @@
         <v>-0.2120667309461785</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7061896542563743</v>
+        <v>-0.7061896542563846</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5885368803771223</v>
+        <v>0.5885368803771495</v>
       </c>
       <c r="F10" t="n">
         <v>0.1086962002755536</v>
@@ -649,7 +649,7 @@
         <v>0.3774701333496368</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1090423333523505</v>
+        <v>0.1090423333523208</v>
       </c>
     </row>
     <row r="12">
@@ -657,13 +657,13 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1262351269206781</v>
+        <v>0.1262351269206778</v>
       </c>
       <c r="C12" t="n">
         <v>-0.3925312243087812</v>
       </c>
       <c r="D12" t="n">
-        <v>0.112262691039221</v>
+        <v>0.1122626910392227</v>
       </c>
       <c r="E12" t="n">
         <v>0.2252440228550885</v>
@@ -677,7 +677,7 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1182960921005744</v>
+        <v>0.1182960921005739</v>
       </c>
       <c r="C13" t="n">
         <v>-0.5104425007318185</v>
@@ -697,19 +697,19 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1066802223216045</v>
+        <v>0.1066802223216047</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6283664151780968</v>
+        <v>-0.6283664151780961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1150711586092453</v>
+        <v>0.115071158609247</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0950300782987408</v>
+        <v>0.09503007829876528</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1039589334417868</v>
+        <v>0.1039589334417935</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08987742388613039</v>
+        <v>0.08987742388613021</v>
       </c>
       <c r="C15" t="n">
         <v>-0.6920641721443118</v>
@@ -729,7 +729,7 @@
         <v>0.06505589272830166</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09867062491041591</v>
+        <v>0.09867062491048795</v>
       </c>
     </row>
     <row r="16">
@@ -749,7 +749,7 @@
         <v>0.03927424200289589</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09013322407859001</v>
+        <v>0.09013322407857759</v>
       </c>
     </row>
     <row r="17">
@@ -780,7 +780,7 @@
         <v>-0.02328210715086615</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1243664615292576</v>
+        <v>0.1243664615292574</v>
       </c>
       <c r="D18" t="n">
         <v>0.1107932009990705</v>
@@ -789,7 +789,7 @@
         <v>-0.02367487192985023</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05549114306065574</v>
+        <v>0.05549114306071969</v>
       </c>
     </row>
     <row r="19">
@@ -797,7 +797,7 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1028901059781898</v>
+        <v>-0.1028901059781907</v>
       </c>
       <c r="C19" t="n">
         <v>0.1253493911674381</v>
@@ -823,13 +823,13 @@
         <v>0.1254386627799499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09749024166611535</v>
+        <v>0.09749024166612173</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1250709638990776</v>
+        <v>-0.1250709638990685</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.03199104423372579</v>
+        <v>-0.03199104423373601</v>
       </c>
     </row>
     <row r="21">
@@ -843,10 +843,10 @@
         <v>0.1244077068001373</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08474612774207356</v>
+        <v>0.08474612774207257</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1972326091686269</v>
+        <v>-0.1972326091685993</v>
       </c>
       <c r="F21" t="n">
         <v>-0.1188881666041716</v>
@@ -857,10 +857,10 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.5856136445955401</v>
+        <v>-0.58561364459554</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1219360983622624</v>
+        <v>0.1219360983622628</v>
       </c>
       <c r="D22" t="n">
         <v>0.06501659552777198</v>
@@ -869,7 +869,7 @@
         <v>-0.2877396422263929</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2541941285832024</v>
+        <v>-0.2541941285831875</v>
       </c>
     </row>
     <row r="23">
@@ -880,10 +880,10 @@
         <v>-0.6951039941860945</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1175553614142397</v>
+        <v>0.1175553614142411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03425468350937427</v>
+        <v>0.03425468350938013</v>
       </c>
       <c r="E23" t="n">
         <v>-0.399251485150885</v>
@@ -897,10 +897,10 @@
         <v>230</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7471050821207574</v>
+        <v>0.7471050821207557</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1105602280411929</v>
+        <v>0.1105602280411915</v>
       </c>
       <c r="D24" t="n">
         <v>-0.01433746667105288</v>
@@ -909,7 +909,7 @@
         <v>-0.5290721180106024</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5700349669982412</v>
+        <v>-0.5700349669982407</v>
       </c>
     </row>
     <row r="25">
@@ -920,13 +920,13 @@
         <v>0.583168143755055</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09986029898044384</v>
+        <v>0.09986029898044453</v>
       </c>
       <c r="D25" t="n">
         <v>-0.09180235734070831</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6547491292226223</v>
+        <v>-0.6547491292225956</v>
       </c>
       <c r="F25" t="n">
         <v>0.6960960643600246</v>
@@ -937,13 +937,13 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3514108576535567</v>
+        <v>0.3514108576535566</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0837275663331816</v>
+        <v>0.08372756633318078</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2133311066457452</v>
+        <v>-0.2133311066457601</v>
       </c>
       <c r="E26" t="n">
         <v>-0.71478552325194</v>
@@ -957,19 +957,19 @@
         <v>260</v>
       </c>
       <c r="B27" t="n">
-        <v>0.185348556964505</v>
+        <v>0.1853485569645049</v>
       </c>
       <c r="C27" t="n">
         <v>0.05936281097620361</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3863662583150137</v>
+        <v>-0.3863662583150453</v>
       </c>
       <c r="E27" t="n">
         <v>0.106129351682858</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3408459805981046</v>
+        <v>0.3408459805980329</v>
       </c>
     </row>
     <row r="28">
@@ -977,7 +977,7 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08836920023220972</v>
+        <v>0.08836920023221016</v>
       </c>
       <c r="C28" t="n">
         <v>0.02216200627957489</v>
@@ -989,7 +989,7 @@
         <v>0.1079581685855422</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2050594523964397</v>
+        <v>0.2050594523964916</v>
       </c>
     </row>
     <row r="29">
@@ -997,13 +997,13 @@
         <v>280</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03294764393042435</v>
+        <v>0.03294764393042448</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.03542659304448124</v>
+        <v>-0.0354265930444795</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7066470932641802</v>
+        <v>0.7066470932641769</v>
       </c>
       <c r="E29" t="n">
         <v>0.1094448166821279</v>
@@ -1017,19 +1017,19 @@
         <v>290</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.003019726244035926</v>
+        <v>-0.00301972624403579</v>
       </c>
       <c r="C30" t="n">
         <v>-0.1251532172358185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6344235601593343</v>
+        <v>0.6344235601593339</v>
       </c>
       <c r="E30" t="n">
         <v>0.1104828480842422</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09057036266306399</v>
+        <v>0.09057036266307937</v>
       </c>
     </row>
     <row r="31">
@@ -1037,10 +1037,10 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.03280623081472753</v>
+        <v>-0.03280623081472774</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2616603877045959</v>
+        <v>-0.2616603877045983</v>
       </c>
       <c r="D31" t="n">
         <v>0.4212397495254347</v>
@@ -1057,19 +1057,19 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.06331729124540036</v>
+        <v>-0.06331729124540028</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4468280391618769</v>
+        <v>-0.4468280391618766</v>
       </c>
       <c r="D32" t="n">
         <v>0.2493212623998016</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1105852944549466</v>
+        <v>0.1105852944549037</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03713668756533347</v>
+        <v>0.03713668756533559</v>
       </c>
     </row>
     <row r="33">
@@ -1100,7 +1100,7 @@
         <v>-0.1391773828426336</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7285466026202092</v>
+        <v>0.7285466026202094</v>
       </c>
       <c r="D34" t="n">
         <v>0.09716251244892518</v>
@@ -1109,7 +1109,7 @@
         <v>0.1062621567858755</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02789820858091932</v>
+        <v>-0.02789820858092109</v>
       </c>
     </row>
     <row r="35">
@@ -1126,7 +1126,7 @@
         <v>0.06375811436622497</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1012394621498883</v>
+        <v>0.1012394621499076</v>
       </c>
       <c r="F35" t="n">
         <v>-0.0744898768879301</v>
@@ -1137,19 +1137,19 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.2513828327127569</v>
+        <v>-0.251382832712757</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4162165344373814</v>
+        <v>0.4162165344373704</v>
       </c>
       <c r="D36" t="n">
         <v>0.03673072491036927</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09312480012038822</v>
+        <v>0.09312480012039186</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1342960681109727</v>
+        <v>-0.134296068110988</v>
       </c>
     </row>
   </sheetData>
@@ -1193,13 +1193,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6309805473734872</v>
+        <v>0.6309805473734871</v>
       </c>
       <c r="C2" t="n">
         <v>-0.4183030374555813</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.001726147018398417</v>
+        <v>-0.001726147018566618</v>
       </c>
       <c r="E2" t="n">
         <v>-0.1105868478505832</v>
@@ -1216,7 +1216,7 @@
         <v>0.8126230592689833</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2738008199421584</v>
+        <v>-0.2738008199421598</v>
       </c>
       <c r="D3" t="n">
         <v>0.07013712479342465</v>
@@ -1225,7 +1225,7 @@
         <v>-0.06785935398116341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.611761764769045</v>
+        <v>0.6117617647687804</v>
       </c>
     </row>
     <row r="4">
@@ -1239,13 +1239,13 @@
         <v>-0.1728058013711229</v>
       </c>
       <c r="D4" t="n">
-        <v>0.154868989827264</v>
+        <v>0.1548689898272578</v>
       </c>
       <c r="E4" t="n">
         <v>0.0009048836242897033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8289625633516984</v>
+        <v>0.8289625633273343</v>
       </c>
     </row>
     <row r="5">
@@ -1253,7 +1253,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>1.079099098311314</v>
+        <v>1.079099098311308</v>
       </c>
       <c r="C5" t="n">
         <v>-0.09424717002437923</v>
@@ -1262,7 +1262,7 @@
         <v>0.2579513124712507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1142962028227199</v>
+        <v>0.1142962028227451</v>
       </c>
       <c r="F5" t="n">
         <v>1.047888336863925</v>
@@ -1276,10 +1276,10 @@
         <v>-0.2344158557723303</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02510747855687992</v>
+        <v>-0.02510747855688153</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3859540151164957</v>
+        <v>0.3859540151164961</v>
       </c>
       <c r="E6" t="n">
         <v>0.3008313597495237</v>
@@ -1293,19 +1293,19 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2377308026378153</v>
+        <v>-0.2377308026378286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04294473842115142</v>
+        <v>0.04294473842114869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5466476432679734</v>
+        <v>0.5466476432679813</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5816258253577162</v>
+        <v>0.5816258253576556</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1764764048362556</v>
+        <v>-0.1764764048451187</v>
       </c>
     </row>
     <row r="8">
@@ -1313,13 +1313,13 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2392092764958437</v>
+        <v>-0.2392092764958368</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1158865696663846</v>
+        <v>0.1158865696663882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7445694943492414</v>
+        <v>0.7445694943521552</v>
       </c>
       <c r="E8" t="n">
         <v>0.8804043203422107</v>
@@ -1333,19 +1333,19 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2386249144964205</v>
+        <v>-0.2386249144964215</v>
       </c>
       <c r="C9" t="n">
         <v>0.198867665837758</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9631768112006154</v>
+        <v>0.9631768112006406</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.231023517221511</v>
+        <v>-1.231023517213181</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1802426781755182</v>
+        <v>-0.1802426781849325</v>
       </c>
     </row>
     <row r="10">
@@ -1359,10 +1359,10 @@
         <v>0.2974847542029438</v>
       </c>
       <c r="D10" t="n">
-        <v>1.128541818358621</v>
+        <v>1.128541818364472</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.156420312661486</v>
+        <v>-1.156420312653186</v>
       </c>
       <c r="F10" t="n">
         <v>-0.1809978049937645</v>
@@ -1373,19 +1373,19 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2300201641103621</v>
+        <v>-0.2300201641103601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4188664118930603</v>
+        <v>0.4188664118930558</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.186637751557428</v>
+        <v>-0.1866377515574305</v>
       </c>
       <c r="E11" t="n">
         <v>-0.8471883131300743</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1807908362202131</v>
+        <v>-0.1807908362705568</v>
       </c>
     </row>
     <row r="12">
@@ -1393,16 +1393,16 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2210746028662838</v>
+        <v>-0.2210746028662822</v>
       </c>
       <c r="C12" t="n">
         <v>0.5714543198487942</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1895018518212317</v>
+        <v>-0.189501851820947</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5711766823895333</v>
+        <v>-0.5711766823894856</v>
       </c>
       <c r="F12" t="n">
         <v>-0.1793783105563874</v>
@@ -1413,7 +1413,7 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2080619047808163</v>
+        <v>-0.2080619047808247</v>
       </c>
       <c r="C13" t="n">
         <v>0.7596822253251068</v>
@@ -1422,10 +1422,10 @@
         <v>-0.1915540063545614</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3890381392370401</v>
+        <v>-0.3890381392370668</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1764041839641634</v>
+        <v>-0.1764041839641518</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1897805013059531</v>
+        <v>-0.1897805013059572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9649040994289619</v>
+        <v>0.9649040994289179</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1926721649316435</v>
+        <v>-0.1926721649301555</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2727266840226482</v>
+        <v>-0.2727266840193351</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.171334043128846</v>
+        <v>-0.1713340430924805</v>
       </c>
     </row>
     <row r="15">
@@ -1453,7 +1453,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1643493043407974</v>
+        <v>-0.1643493043408059</v>
       </c>
       <c r="C15" t="n">
         <v>1.109990162085745</v>
@@ -1465,7 +1465,7 @@
         <v>-0.1919070866692318</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1633418036703237</v>
+        <v>-0.1633418036270147</v>
       </c>
     </row>
     <row r="16">
@@ -1485,7 +1485,7 @@
         <v>-0.1272258589575234</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1511089891075206</v>
+        <v>-0.1511089890607613</v>
       </c>
     </row>
     <row r="17">
@@ -1496,7 +1496,7 @@
         <v>-0.07797639933317586</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2095283602082896</v>
+        <v>-0.2095283602082881</v>
       </c>
       <c r="D17" t="n">
         <v>-0.188395203562169</v>
@@ -1516,7 +1516,7 @@
         <v>-0.003728238546831534</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2117790751348073</v>
+        <v>-0.2117790751348473</v>
       </c>
       <c r="D18" t="n">
         <v>-0.1832616503804178</v>
@@ -1525,7 +1525,7 @@
         <v>-0.003152303135508811</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1036730933423</v>
+        <v>-0.1036730933425358</v>
       </c>
     </row>
     <row r="19">
@@ -1533,7 +1533,7 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1078077293894564</v>
+        <v>0.1078077293894452</v>
       </c>
       <c r="C19" t="n">
         <v>-0.2126993093909881</v>
@@ -1559,13 +1559,13 @@
         <v>-0.2120835188511709</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1631275536890955</v>
+        <v>-0.1631275536904227</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1585531964324302</v>
+        <v>0.1585531964311805</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01564502707705586</v>
+        <v>0.01564502702934586</v>
       </c>
     </row>
     <row r="21">
@@ -1573,19 +1573,19 @@
         <v>200</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5317134822421808</v>
+        <v>0.5317134822421798</v>
       </c>
       <c r="C21" t="n">
         <v>-0.2096536671136368</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.145053247041342</v>
+        <v>-0.145053247042134</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2677485391267995</v>
+        <v>0.2677485391256961</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1382219929788681</v>
+        <v>0.1382219929786498</v>
       </c>
     </row>
     <row r="22">
@@ -1593,19 +1593,19 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8606769382910067</v>
+        <v>0.8606769382910061</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2050185317870887</v>
+        <v>-0.2050185317871318</v>
       </c>
       <c r="D22" t="n">
         <v>-0.1178080852503037</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4045832401546935</v>
+        <v>0.4045832401547504</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3392413739343488</v>
+        <v>0.3392413740005081</v>
       </c>
     </row>
     <row r="23">
@@ -1616,13 +1616,13 @@
         <v>1.113108869811388</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1976061840515531</v>
+        <v>-0.1976061840515294</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.07584964896489474</v>
+        <v>-0.07584964896445427</v>
       </c>
       <c r="E23" t="n">
-        <v>0.576611258363514</v>
+        <v>0.576611258363531</v>
       </c>
       <c r="F23" t="n">
         <v>0.63232351577808</v>
@@ -1633,10 +1633,10 @@
         <v>230</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.361017895471614</v>
+        <v>-1.361017895471613</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1865498524525323</v>
+        <v>-0.1865498524525499</v>
       </c>
       <c r="D24" t="n">
         <v>-0.009376961294926787</v>
@@ -1645,7 +1645,7 @@
         <v>0.7860616916975574</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9077154290592652</v>
+        <v>0.9077154290837265</v>
       </c>
     </row>
     <row r="25">
@@ -1656,13 +1656,13 @@
         <v>-1.223875431549872</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1704903466000821</v>
+        <v>-0.1704903466000746</v>
       </c>
       <c r="D25" t="n">
         <v>0.09875973041108997</v>
       </c>
       <c r="E25" t="n">
-        <v>1.008073488436501</v>
+        <v>1.008073488430025</v>
       </c>
       <c r="F25" t="n">
         <v>-1.241050554921392</v>
@@ -1673,13 +1673,13 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.8855811875249034</v>
+        <v>-0.885581187524895</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1472255474425376</v>
+        <v>-0.1472255474425612</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2755754571102598</v>
+        <v>0.2755754571073913</v>
       </c>
       <c r="E26" t="n">
         <v>1.153335413152103</v>
@@ -1693,19 +1693,19 @@
         <v>260</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5836950923373196</v>
+        <v>-0.5836950923373263</v>
       </c>
       <c r="C27" t="n">
         <v>-0.1130761421231086</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5462433841022951</v>
+        <v>0.5462433841025583</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1791645489378044</v>
+        <v>-0.1791645489378634</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.7817046189404185</v>
+        <v>-0.7817046189024168</v>
       </c>
     </row>
     <row r="28">
@@ -1722,10 +1722,10 @@
         <v>0.8606718840004932</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1816086283454806</v>
+        <v>-0.1816086283455116</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.526555582878849</v>
+        <v>-0.5265555828005702</v>
       </c>
     </row>
     <row r="29">
@@ -1733,13 +1733,13 @@
         <v>280</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.2093943884299369</v>
+        <v>-0.2093943884299353</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01776195183276378</v>
+        <v>0.0177619518328262</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.214060784144939</v>
+        <v>-1.21406078414527</v>
       </c>
       <c r="E29" t="n">
         <v>-0.1833506594853508</v>
@@ -1753,19 +1753,19 @@
         <v>290</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.09628406156927088</v>
+        <v>-0.09628406156927057</v>
       </c>
       <c r="C30" t="n">
         <v>0.1439753669758503</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.220286345471751</v>
+        <v>-1.220286345471937</v>
       </c>
       <c r="E30" t="n">
         <v>-0.1842734737812362</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2566724958440554</v>
+        <v>-0.2566724958785153</v>
       </c>
     </row>
     <row r="31">
@@ -1773,10 +1773,10 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.009431767947421699</v>
+        <v>-0.009431767947421647</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3442724039635831</v>
+        <v>0.3442724039636347</v>
       </c>
       <c r="D31" t="n">
         <v>-0.9277274562711789</v>
@@ -1793,19 +1793,19 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06299337893077134</v>
+        <v>0.06299337893077095</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6377739585116059</v>
+        <v>0.6377739585116523</v>
       </c>
       <c r="D32" t="n">
         <v>-0.6282284143177642</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.1829365323757569</v>
+        <v>-0.1829365323768771</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1197189480844699</v>
+        <v>-0.1197189480812696</v>
       </c>
     </row>
     <row r="33">
@@ -1813,7 +1813,7 @@
         <v>320</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1299100544550192</v>
+        <v>0.1299100544550193</v>
       </c>
       <c r="C33" t="n">
         <v>0.951712990019722</v>
@@ -1825,7 +1825,7 @@
         <v>-0.1801061435634296</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.06016822799224239</v>
+        <v>-0.06016822799226636</v>
       </c>
     </row>
     <row r="34">
@@ -1833,10 +1833,10 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1983488685132875</v>
+        <v>0.1983488685132883</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.266713140876365</v>
+        <v>-1.266713140876294</v>
       </c>
       <c r="D34" t="n">
         <v>-0.2897690235929538</v>
@@ -1845,7 +1845,7 @@
         <v>-0.1752184308167093</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004389883355908729</v>
+        <v>0.004389883354517986</v>
       </c>
     </row>
     <row r="35">
@@ -1859,13 +1859,13 @@
         <v>-1.252789355328361</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1993166639864524</v>
+        <v>-0.1993166639864526</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.167500525238824</v>
+        <v>-0.1675005252441041</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07991616049317901</v>
+        <v>0.07991616049320129</v>
       </c>
     </row>
     <row r="36">
@@ -1873,19 +1873,19 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3665252006838216</v>
+        <v>0.3665252006838247</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9461258538688566</v>
+        <v>-0.9461258538688769</v>
       </c>
       <c r="D36" t="n">
         <v>-0.1291212956486749</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.1557274296714968</v>
+        <v>-0.1557274296903852</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1719846056386607</v>
+        <v>0.1719846056376502</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1935,7 @@
         <v>5.172479022658891</v>
       </c>
       <c r="D2" t="n">
-        <v>6.031930606824825</v>
+        <v>6.031930606824976</v>
       </c>
       <c r="E2" t="n">
         <v>6.512054325713277</v>
@@ -1975,13 +1975,13 @@
         <v>3.726608992078261</v>
       </c>
       <c r="D4" t="n">
-        <v>7.811914283288397</v>
+        <v>7.811914283288116</v>
       </c>
       <c r="E4" t="n">
         <v>10.67518297796708</v>
       </c>
       <c r="F4" t="n">
-        <v>33.087205073668</v>
+        <v>33.08720507367546</v>
       </c>
     </row>
     <row r="5">
@@ -1989,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>6.036223655387571</v>
+        <v>6.036223655387573</v>
       </c>
       <c r="C5" t="n">
         <v>3.572949893854897</v>
@@ -2001,7 +2001,7 @@
         <v>14.07622734352575</v>
       </c>
       <c r="F5" t="n">
-        <v>37.16536758144439</v>
+        <v>37.16536758144443</v>
       </c>
     </row>
     <row r="6">
@@ -2012,7 +2012,7 @@
         <v>1.000000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3.647690410492284</v>
+        <v>3.647690410492279</v>
       </c>
       <c r="D6" t="n">
         <v>11.03762830891474</v>
@@ -2032,16 +2032,16 @@
         <v>1.000000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>3.902290135326079</v>
+        <v>3.902290135326092</v>
       </c>
       <c r="D7" t="n">
-        <v>13.12629256134221</v>
+        <v>13.12629256134222</v>
       </c>
       <c r="E7" t="n">
         <v>24.27741871995991</v>
       </c>
       <c r="F7" t="n">
-        <v>1.809092976976847</v>
+        <v>1.809092976977327</v>
       </c>
     </row>
     <row r="8">
@@ -2052,16 +2052,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4.323584245868833</v>
+        <v>4.323584245868866</v>
       </c>
       <c r="D8" t="n">
-        <v>15.36779719145323</v>
+        <v>15.36779719145402</v>
       </c>
       <c r="E8" t="n">
         <v>28.63096046130137</v>
       </c>
       <c r="F8" t="n">
-        <v>1.947882237645345</v>
+        <v>1.947882237645225</v>
       </c>
     </row>
     <row r="9">
@@ -2069,7 +2069,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999978</v>
+        <v>0.9999999999999968</v>
       </c>
       <c r="C9" t="n">
         <v>4.911892225589868</v>
@@ -2078,10 +2078,10 @@
         <v>17.39396789082391</v>
       </c>
       <c r="E9" t="n">
-        <v>29.23501826162088</v>
+        <v>29.23501826161995</v>
       </c>
       <c r="F9" t="n">
-        <v>2.123122342021177</v>
+        <v>2.123122342021211</v>
       </c>
     </row>
     <row r="10">
@@ -2095,13 +2095,13 @@
         <v>5.666961310721973</v>
       </c>
       <c r="D10" t="n">
-        <v>18.45289367810443</v>
+        <v>18.45289367810463</v>
       </c>
       <c r="E10" t="n">
-        <v>28.95203071199898</v>
+        <v>28.95203071199946</v>
       </c>
       <c r="F10" t="n">
-        <v>2.346807657113603</v>
+        <v>2.3468076571136</v>
       </c>
     </row>
     <row r="11">
@@ -2121,7 +2121,7 @@
         <v>23.76126560744462</v>
       </c>
       <c r="F11" t="n">
-        <v>2.63279766373382</v>
+        <v>2.632797663733283</v>
       </c>
     </row>
     <row r="12">
@@ -2129,13 +2129,13 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.613869130329752</v>
+        <v>7.613869130329753</v>
       </c>
       <c r="D12" t="n">
-        <v>1.158057539858859</v>
+        <v>1.158057539858867</v>
       </c>
       <c r="E12" t="n">
         <v>18.01388858998152</v>
@@ -2149,7 +2149,7 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>8.687254267277236</v>
@@ -2161,7 +2161,7 @@
         <v>13.65450309032862</v>
       </c>
       <c r="F13" t="n">
-        <v>3.457474303014671</v>
+        <v>3.457474303014578</v>
       </c>
     </row>
     <row r="14">
@@ -2169,19 +2169,19 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>1.076357561416229</v>
+        <v>1.076357561416231</v>
       </c>
       <c r="C14" t="n">
-        <v>9.591606587463723</v>
+        <v>9.591606587463744</v>
       </c>
       <c r="D14" t="n">
-        <v>1.280520338337283</v>
+        <v>1.280520338337204</v>
       </c>
       <c r="E14" t="n">
-        <v>10.81723927223918</v>
+        <v>10.81723927223842</v>
       </c>
       <c r="F14" t="n">
-        <v>4.042547317411151</v>
+        <v>4.042547317411579</v>
       </c>
     </row>
     <row r="15">
@@ -2189,7 +2189,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>1.289263194467655</v>
+        <v>1.289263194467657</v>
       </c>
       <c r="C15" t="n">
         <v>9.940672788804083</v>
@@ -2201,7 +2201,7 @@
         <v>9.187825257858641</v>
       </c>
       <c r="F15" t="n">
-        <v>4.791927840939396</v>
+        <v>4.79192784093701</v>
       </c>
     </row>
     <row r="16">
@@ -2215,13 +2215,13 @@
         <v>1.000000000000002</v>
       </c>
       <c r="D16" t="n">
-        <v>1.504334058274922</v>
+        <v>1.50433405827492</v>
       </c>
       <c r="E16" t="n">
         <v>8.467571121326088</v>
       </c>
       <c r="F16" t="n">
-        <v>5.765491925835072</v>
+        <v>5.765491925836367</v>
       </c>
     </row>
     <row r="17">
@@ -2241,7 +2241,7 @@
         <v>8.455953274208909</v>
       </c>
       <c r="F17" t="n">
-        <v>7.05323932322528</v>
+        <v>7.053239323225283</v>
       </c>
     </row>
     <row r="18">
@@ -2249,7 +2249,7 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>2.494289415928361</v>
+        <v>2.494289415928362</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2261,7 +2261,7 @@
         <v>9.053247259158509</v>
       </c>
       <c r="F18" t="n">
-        <v>8.791544655658491</v>
+        <v>8.791544655650188</v>
       </c>
     </row>
     <row r="19">
@@ -2269,7 +2269,7 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>3.182247746209844</v>
+        <v>3.182247746209852</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2295,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2.711909580802626</v>
+        <v>2.711909580802402</v>
       </c>
       <c r="E20" t="n">
-        <v>12.03433523772456</v>
+        <v>12.03433523772585</v>
       </c>
       <c r="F20" t="n">
-        <v>14.54327103626376</v>
+        <v>14.54327103626593</v>
       </c>
     </row>
     <row r="21">
@@ -2315,13 +2315,13 @@
         <v>1.008544339471021</v>
       </c>
       <c r="D21" t="n">
-        <v>3.294599608964827</v>
+        <v>3.294599608964981</v>
       </c>
       <c r="E21" t="n">
-        <v>14.45358224335218</v>
+        <v>14.45358224334979</v>
       </c>
       <c r="F21" t="n">
-        <v>19.25564480599722</v>
+        <v>19.25564480599723</v>
       </c>
     </row>
     <row r="22">
@@ -2332,7 +2332,7 @@
         <v>6.219214239381778</v>
       </c>
       <c r="C22" t="n">
-        <v>1.07982637611928</v>
+        <v>1.079826376119285</v>
       </c>
       <c r="D22" t="n">
         <v>4.075122775353873</v>
@@ -2341,7 +2341,7 @@
         <v>17.47006052439409</v>
       </c>
       <c r="F22" t="n">
-        <v>25.61632926861233</v>
+        <v>25.61632926861255</v>
       </c>
     </row>
     <row r="23">
@@ -2352,10 +2352,10 @@
         <v>6.668558152087111</v>
       </c>
       <c r="C23" t="n">
-        <v>1.197550073419605</v>
+        <v>1.197550073419612</v>
       </c>
       <c r="D23" t="n">
-        <v>5.138823977502634</v>
+        <v>5.138823977502733</v>
       </c>
       <c r="E23" t="n">
         <v>20.97954445413049</v>
@@ -2369,10 +2369,10 @@
         <v>230</v>
       </c>
       <c r="B24" t="n">
-        <v>6.325065627406175</v>
+        <v>6.325065627406161</v>
       </c>
       <c r="C24" t="n">
-        <v>1.382127815945944</v>
+        <v>1.382127815945924</v>
       </c>
       <c r="D24" t="n">
         <v>6.611933089898532</v>
@@ -2381,7 +2381,7 @@
         <v>24.70503780697369</v>
       </c>
       <c r="F24" t="n">
-        <v>37.84845939262021</v>
+        <v>37.84845939262045</v>
       </c>
     </row>
     <row r="25">
@@ -2392,16 +2392,16 @@
         <v>6.191207219632115</v>
       </c>
       <c r="C25" t="n">
-        <v>1.645794008071852</v>
+        <v>1.645794008071845</v>
       </c>
       <c r="D25" t="n">
-        <v>8.665141033588529</v>
+        <v>8.665141033588519</v>
       </c>
       <c r="E25" t="n">
-        <v>27.95408500853859</v>
+        <v>27.95408500853713</v>
       </c>
       <c r="F25" t="n">
-        <v>39.03326207539458</v>
+        <v>39.03326207539457</v>
       </c>
     </row>
     <row r="26">
@@ -2409,19 +2409,19 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>5.205564121128216</v>
+        <v>5.205564121128222</v>
       </c>
       <c r="C26" t="n">
-        <v>2.002461039520822</v>
+        <v>2.002461039520781</v>
       </c>
       <c r="D26" t="n">
-        <v>11.4627177453849</v>
+        <v>11.46271774538522</v>
       </c>
       <c r="E26" t="n">
         <v>29.37181291494117</v>
       </c>
       <c r="F26" t="n">
-        <v>36.95579061181795</v>
+        <v>36.95579061181796</v>
       </c>
     </row>
     <row r="27">
@@ -2435,13 +2435,13 @@
         <v>2.481006386590968</v>
       </c>
       <c r="D27" t="n">
-        <v>14.90293065131582</v>
+        <v>14.90293065131678</v>
       </c>
       <c r="E27" t="n">
         <v>1.478321525914856</v>
       </c>
       <c r="F27" t="n">
-        <v>29.56723426398997</v>
+        <v>29.56723426398599</v>
       </c>
     </row>
     <row r="28">
@@ -2449,7 +2449,7 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>3.353435473731282</v>
+        <v>3.353435473731276</v>
       </c>
       <c r="C28" t="n">
         <v>3.12864820579652</v>
@@ -2461,7 +2461,7 @@
         <v>1.568683061284109</v>
       </c>
       <c r="F28" t="n">
-        <v>22.26019461711107</v>
+        <v>22.26019461711187</v>
       </c>
     </row>
     <row r="29">
@@ -2469,13 +2469,13 @@
         <v>280</v>
       </c>
       <c r="B29" t="n">
-        <v>2.945086593066933</v>
+        <v>2.945086593066931</v>
       </c>
       <c r="C29" t="n">
-        <v>4.013673573060868</v>
+        <v>4.013673573060857</v>
       </c>
       <c r="D29" t="n">
-        <v>17.8437549238002</v>
+        <v>17.84375492380011</v>
       </c>
       <c r="E29" t="n">
         <v>1.682966471464308</v>
@@ -2489,19 +2489,19 @@
         <v>290</v>
       </c>
       <c r="B30" t="n">
-        <v>2.805384923551941</v>
+        <v>2.805384923551937</v>
       </c>
       <c r="C30" t="n">
         <v>5.221425401520518</v>
       </c>
       <c r="D30" t="n">
-        <v>18.58057420904457</v>
+        <v>18.58057420904439</v>
       </c>
       <c r="E30" t="n">
         <v>1.83074085667093</v>
       </c>
       <c r="F30" t="n">
-        <v>13.51481563193306</v>
+        <v>13.51481563193357</v>
       </c>
     </row>
     <row r="31">
@@ -2509,16 +2509,16 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>2.807249346861014</v>
+        <v>2.807249346861018</v>
       </c>
       <c r="C31" t="n">
-        <v>6.813638983839486</v>
+        <v>6.813638983839522</v>
       </c>
       <c r="D31" t="n">
-        <v>15.7760087565404</v>
+        <v>15.77600875654039</v>
       </c>
       <c r="E31" t="n">
-        <v>2.024658500649763</v>
+        <v>2.024658500649766</v>
       </c>
       <c r="F31" t="n">
         <v>11.5833175643357</v>
@@ -2529,19 +2529,19 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>2.901660105260595</v>
+        <v>2.901660105260594</v>
       </c>
       <c r="C32" t="n">
-        <v>8.667183482240619</v>
+        <v>8.667183482240628</v>
       </c>
       <c r="D32" t="n">
         <v>12.1259481527967</v>
       </c>
       <c r="E32" t="n">
-        <v>2.279363969180677</v>
+        <v>2.279363969180189</v>
       </c>
       <c r="F32" t="n">
-        <v>10.77278822386698</v>
+        <v>10.77278822386666</v>
       </c>
     </row>
     <row r="33">
@@ -2549,7 +2549,7 @@
         <v>320</v>
       </c>
       <c r="B33" t="n">
-        <v>3.082480471678221</v>
+        <v>3.082480471678219</v>
       </c>
       <c r="C33" t="n">
         <v>10.09257015519903</v>
@@ -2569,10 +2569,10 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>3.352038622011803</v>
+        <v>3.352038622011805</v>
       </c>
       <c r="C34" t="n">
-        <v>9.711772507515546</v>
+        <v>9.71177250751553</v>
       </c>
       <c r="D34" t="n">
         <v>7.279605765289104</v>
@@ -2581,7 +2581,7 @@
         <v>3.037340357277043</v>
       </c>
       <c r="F34" t="n">
-        <v>11.74387424055829</v>
+        <v>11.74387424055867</v>
       </c>
     </row>
     <row r="35">
@@ -2598,7 +2598,7 @@
         <v>6.17694481225566</v>
       </c>
       <c r="E35" t="n">
-        <v>3.587160608453935</v>
+        <v>3.587160608453236</v>
       </c>
       <c r="F35" t="n">
         <v>13.41891992795465</v>
@@ -2609,19 +2609,19 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>4.15650740703064</v>
+        <v>4.156507407030648</v>
       </c>
       <c r="C36" t="n">
-        <v>8.581811083287949</v>
+        <v>8.581811083287791</v>
       </c>
       <c r="D36" t="n">
         <v>5.693828308362239</v>
       </c>
       <c r="E36" t="n">
-        <v>4.301771127643811</v>
+        <v>4.301771127642991</v>
       </c>
       <c r="F36" t="n">
-        <v>15.91768902015312</v>
+        <v>15.91768902015685</v>
       </c>
     </row>
   </sheetData>
